--- a/数据整理/stocks/A股/上证主板/603228-景旺电子.xlsx
+++ b/数据整理/stocks/A股/上证主板/603228-景旺电子.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>37.42</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>92.41</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>3.82</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4294</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>7</v>
       </c>
     </row>
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004192</t>
+          <t>006608</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>招商中证500指数增强A</t>
+          <t>泓德研究优选混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>93.94</t>
+          <t>18.49</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.88</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>6</v>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6231</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004193</t>
+          <t>002808</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>招商中证500指数增强C</t>
+          <t>泓德优势领航灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>93.94</t>
+          <t>11.50</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.88</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>6</v>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4128</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -576,25 +616,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>000972</t>
+          <t>001607</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>新华万银多元策略灵活配置混合</t>
+          <t>英大策略优选混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>94.88</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>5.21</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0420</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>6</v>
       </c>
     </row>
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>001678</t>
+          <t>003447</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>英大国企改革主题股票</t>
+          <t>英大睿鑫灵活配置混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>91.00</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.72</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>9</v>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0359</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>001607</t>
+          <t>003446</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>英大策略优选混合A</t>
+          <t>英大睿鑫灵活配置混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>93.80</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4.61</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>6</v>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0349</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>001608</t>
+          <t>001678</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>英大策略优选混合C</t>
+          <t>英大国企改革主题股票</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>93.80</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4.61</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>6</v>
+          <t>91.00</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -688,25 +768,35 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>002808</t>
+          <t>003501</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>泓德优势领航灵活配置混合</t>
+          <t>泰达宏利睿智稳健灵活配置混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>92.02</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>3.59</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
+          <t>89.11</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>9</v>
       </c>
     </row>
@@ -716,26 +806,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>003446</t>
+          <t>000972</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>英大睿鑫灵活配置混合A</t>
+          <t>新华万银多元策略灵活配置混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>89.87</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4.92</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>10</v>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -744,26 +844,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>003447</t>
+          <t>004192</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>英大睿鑫灵活配置混合C</t>
+          <t>招商中证500指数增强A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>89.87</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4.92</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>10</v>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -772,26 +882,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>003501</t>
+          <t>004193</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>泰达宏利睿智稳健灵活配置混合</t>
+          <t>招商中证500指数增强C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>89.11</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3.26</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>9</v>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -800,26 +920,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>006608</t>
+          <t>001608</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>泓德研究优选混合</t>
+          <t>英大策略优选混合C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>93.02</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>3.37</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>8</v>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -833,7 +963,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -854,15 +984,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -874,26 +1014,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>003446</t>
+          <t>000970</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>英大睿鑫灵活配置混合A</t>
+          <t>东方红睿元三年定期开放灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>88.53</t>
+          <t>43.43</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5.86</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>8</v>
+          <t>75.56</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3463</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -902,26 +1052,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>003447</t>
+          <t>003713</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>英大睿鑫灵活配置混合C</t>
+          <t>英大睿盛灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>88.53</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5.86</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>8</v>
+          <t>88.60</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0857</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -930,26 +1090,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>003501</t>
+          <t>003714</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>泰达宏利睿智稳健灵活配置混合</t>
+          <t>英大睿盛灵活配置混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>87.21</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.81</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>4</v>
+          <t>88.60</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0748</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -958,26 +1128,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>003713</t>
+          <t>003446</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>英大睿盛灵活配置混合A</t>
+          <t>英大睿鑫灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>88.60</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>5.16</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>5</v>
+          <t>88.53</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0434</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -986,26 +1166,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>003714</t>
+          <t>003447</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>英大睿盛灵活配置混合C</t>
+          <t>英大睿鑫灵活配置混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>88.60</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>5.16</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>5</v>
+          <t>88.53</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0428</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005146</t>
+          <t>001607</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>兴银丰润灵活配置混合</t>
+          <t>英大策略优选混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>95.43</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2.74</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>7</v>
+          <t>89.02</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0428</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>000970</t>
+          <t>001678</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>东方红睿元三年定期开放灵活配置混合</t>
+          <t>英大国企改革主题股票</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>75.56</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3.10</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>10</v>
+          <t>86.51</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0334</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -1070,26 +1280,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>001607</t>
+          <t>003501</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>英大策略优选混合A</t>
+          <t>泰达宏利睿智稳健灵活配置混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>89.02</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>5.28</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>5</v>
+          <t>87.21</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -1108,15 +1328,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>89.02</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>5.28</t>
         </is>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1126,25 +1356,35 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>001678</t>
+          <t>005146</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>英大国企改革主题股票</t>
+          <t>兴银丰润灵活配置混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>86.51</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4.99</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
+          <t>95.43</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>7</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603228-景旺电子.xlsx
+++ b/数据整理/stocks/A股/上证主板/603228-景旺电子.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1391,4 +1392,592 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005392</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>长信价值蓝筹两年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.76</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2259</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009911</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>长信价值蓝筹两年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.76</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2182</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003713</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>英大睿盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.66</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0810</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003714</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>英大睿盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.66</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0705</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010404</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博道盛利6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>28.71</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0510</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001607</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>英大策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0506</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003446</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>英大睿鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.97</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0505</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003447</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>英大睿鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.97</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0499</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001678</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>英大国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.41</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0331</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003501</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>泰达宏利睿智稳健灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.32</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001608</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>英大策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008342</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>九泰科鑫策略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>35.91</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005146</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>兴银丰润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008343</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>九泰科鑫策略精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>35.91</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603228-景旺电子.xlsx
+++ b/数据整理/stocks/A股/上证主板/603228-景旺电子.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1980,4 +1981,402 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000970</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红睿元三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>40.32</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>76.98</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2499</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004818</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国寿安保目标策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>25.15</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0953</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003713</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>英大睿盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.98</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0840</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003714</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>英大睿盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.98</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0766</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003446</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>英大睿鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0473</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003447</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>英大睿鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0467</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004819</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国寿安保目标策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>25.15</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001607</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>英大策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0309</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001608</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>英大策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603228-景旺电子.xlsx
+++ b/数据整理/stocks/A股/上证主板/603228-景旺电子.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2379,4 +2380,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>14</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>12</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603228-景旺电子.xlsx
+++ b/数据整理/stocks/A股/上证主板/603228-景旺电子.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2388,7 +2389,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2399,17 +2400,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2419,14 +2440,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>009264</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泓德瑞兴三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.22</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.7472</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>9</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.66</v>
       </c>
     </row>
     <row r="3">
@@ -2435,14 +2478,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>14</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.86</v>
+          <t>006608</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泓德研究优选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>25.76</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.39</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7754</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -2451,14 +2516,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>10</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.7</v>
+          <t>002808</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泓德优势领航灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>20.67</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.08</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5870</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -2467,13 +2554,1177 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>005763</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧电子信息产业沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3656</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>163302</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大摩资源优选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.61</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3361</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001672</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国寿安保智慧生活股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.77</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2339</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>900009</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中信证券成长动力混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1959</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003714</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>英大睿盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.40</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1636</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003318</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>景顺长城中证500行业中性低波动指数</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>15.69</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1522</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001607</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>英大策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1332</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009658</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘低波动策略股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1236</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>003713</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>英大睿盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.40</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1190</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>003446</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>英大睿鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1096</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004616</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中欧电子信息产业沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0998</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011765</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>兴银高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0973</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001541</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>汇添富民营新动力股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.13</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0864</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010174</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>英大智享债券A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>21.55</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0733</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>560500</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>98.51</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0594</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>007594</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长指数C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0445</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010938</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫招惠一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>23.09</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0417</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>007593</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长指数A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0412</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>003447</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>英大睿鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>900059</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中信证券成长动力混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011766</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>兴银高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010939</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫招惠一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>23.09</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>512260</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华安中证500行业中性低波动ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>96.32</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010175</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>英大智享债券C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>21.55</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>165522</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>信诚中证TMT产业主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005146</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>兴银丰润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001608</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>英大策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009775</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘低波动策略股票C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>31</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.71</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>14</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>12</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>2.65</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603228-景旺电子.xlsx
+++ b/数据整理/stocks/A股/上证主板/603228-景旺电子.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3623,7 +3624,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3634,17 +3635,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3654,14 +3675,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>31</v>
-      </c>
-      <c r="D2" t="n">
-        <v>6.71</v>
+          <t>001955</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧养老产业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>46.95</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.3710</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -3670,14 +3713,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>9</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.66</v>
+          <t>010429</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧睿见混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>27.61</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.03</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.0072</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -3686,14 +3751,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>14</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.86</v>
+          <t>004616</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧电子信息产业沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>14.54</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6906</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -3702,14 +3789,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>10</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.7</v>
+          <t>005763</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧电子信息产业沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3672</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -3718,13 +3827,395 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>003713</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>英大睿盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.42</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2480</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003714</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>英大睿盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.42</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0994</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>014339</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>长江智能制造混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>21.63</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0731</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003279</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>融通沪港深智慧生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>67.65</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>014340</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长江智能制造混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>21.63</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005146</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>兴银丰润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001608</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>英大策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>11</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.87</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>31</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.71</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>14</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>10</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>12</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>2.65</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603228-景旺电子.xlsx
+++ b/数据整理/stocks/A股/上证主板/603228-景旺电子.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4098,7 +4099,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4109,17 +4110,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4129,14 +4150,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>11</v>
-      </c>
-      <c r="D2" t="n">
-        <v>6.87</v>
+          <t>001955</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧养老产业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>31.18</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.98</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.1118</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -4145,14 +4188,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>31</v>
-      </c>
-      <c r="D3" t="n">
-        <v>6.71</v>
+          <t>010429</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧睿见混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>24.72</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.96</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.4621</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -4161,14 +4226,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>9</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.66</v>
+          <t>166027</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧创业板两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>22.25</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.44</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.7333</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -4177,14 +4264,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>14</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.86</v>
+          <t>011229</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>创金合信数字经济主题股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>26.06</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1414</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -4193,14 +4302,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>10</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.7</v>
+          <t>011230</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>创金合信数字经济主题股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.96</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5676</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -4209,13 +4340,829 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>012778</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧养老产业混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.98</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4920</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004616</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧电子信息产业沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>82.44</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.02</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4563</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009791</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧创业板两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.44</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4269</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005763</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中欧电子信息产业沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>82.44</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.02</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3368</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001782</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>九泰久益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1088</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>014339</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>长江智能制造混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>69.26</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1071</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>673141</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>西部利得景程灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.55</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0979</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001844</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>九泰久益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0755</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001607</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>英大策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0322</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012521</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>英大稳固增强核心一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>28.66</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>003446</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>英大睿鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>673143</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>西部利得景程灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>87.55</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>003447</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>英大睿鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012522</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>英大稳固增强核心一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>28.66</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>015481</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中欧睿见混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>9.96</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>014340</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>长江智能制造混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>69.26</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005146</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>兴银丰润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001608</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>英大策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>23</v>
+      </c>
+      <c r="D2" t="n">
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>11</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.87</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>31</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6.71</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>9</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>14</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>10</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>12</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>2.65</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603228-景旺电子.xlsx
+++ b/数据整理/stocks/A股/上证主板/603228-景旺电子.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="n">
-        <v>11.3</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D3" t="n">
-        <v>6.87</v>
+        <v>11.3</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="D4" t="n">
-        <v>6.71</v>
+        <v>6.87</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D5" t="n">
-        <v>1.66</v>
+        <v>6.71</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D6" t="n">
-        <v>0.86</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D7" t="n">
-        <v>1.7</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>10</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>12</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>2.65</v>
       </c>
     </row>
@@ -600,6 +617,972 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001955</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧养老产业混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>22.51</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.88</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2240</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010429</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧睿见混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>18.74</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.84</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8440</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011710</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧睿泽混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.90</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8247</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>166027</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧创业板两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.40</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.36</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7591</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004616</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧电子信息产业沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3332</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012778</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧养老产业混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.88</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2766</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009791</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧创业板两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.40</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.36</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2630</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005763</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧电子信息产业沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2580</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003713</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>英大睿盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1749</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003714</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>英大睿盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1353</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>014339</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>长江智能制造混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>75.36</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0999</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011711</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中欧睿泽混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>9.90</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0851</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>014155</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国泰君安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0750</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>014156</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国泰君安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0454</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001607</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>英大策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>012522</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>英大稳固增强核心一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>27.71</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>003447</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>英大睿鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>161038</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富国新兴成长量化精选混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012521</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>英大稳固增强核心一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>27.71</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>015481</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中欧睿见混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>9.84</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>003446</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>英大睿鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>014340</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>长江智能制造混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>75.36</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001608</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>英大策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>014171</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>富国新兴成长量化精选混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1529,7 +2512,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2003,7 +2986,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3237,7 +4220,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3635,7 +4618,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4223,7 +5206,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4659,7 +5642,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/603228-景旺电子.xlsx
+++ b/数据整理/stocks/A股/上证主板/603228-景旺电子.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D2" t="n">
-        <v>7.5</v>
+        <v>9.859999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="n">
-        <v>11.3</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D4" t="n">
-        <v>6.87</v>
+        <v>11.3</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="D5" t="n">
-        <v>6.71</v>
+        <v>6.87</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D6" t="n">
-        <v>1.66</v>
+        <v>6.71</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D7" t="n">
-        <v>0.86</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D8" t="n">
-        <v>1.7</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>10</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>12</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>2.65</v>
       </c>
     </row>
@@ -616,7 +633,1677 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001256</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泓德优选成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>37.42</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4294</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006608</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泓德研究优选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>18.49</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6231</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002808</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泓德优势领航灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.50</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4128</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001607</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>英大策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0420</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003447</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>英大睿鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0359</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003446</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>英大睿鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0349</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001678</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>英大国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.00</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003501</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>泰达宏利睿智稳健灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.11</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000972</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>新华万银多元策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004192</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004193</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001608</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>英大策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001955</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧养老产业混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>26.80</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.38</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.96</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.6693</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010429</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧睿见混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21.47</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.95</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.1363</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>166027</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧创业板两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.45</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>95.10</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.98</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9431</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011710</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧睿泽混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.07</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.88</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8961</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012778</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧养老产业混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.38</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.96</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5856</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005763</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧电子信息产业沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>14.81</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4517</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009791</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧创业板两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>95.10</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.98</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3253</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003501</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>泰达宏利睿智稳健灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.84</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>82.46</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2460</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>162204</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>泰达宏利行业精选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>84.56</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2138</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004616</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中欧电子信息产业沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2074</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003713</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>英大睿盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1628</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>003714</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>英大睿盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1628</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>014339</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>长江智能制造混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>83.09</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1426</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001305</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>九泰天富改革新动力混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1398</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>013280</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>泰达宏利睿智稳健灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>82.46</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1358</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>015601</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>泰达宏利行业精选混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>84.56</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1004</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001844</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>九泰久益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>9.93</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0874</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011711</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中欧睿泽混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>9.88</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0751</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001782</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>九泰久益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>9.93</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0616</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001607</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>英大策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>003446</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>英大睿鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>000270</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>建信灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>003447</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>英大睿鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>015481</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中欧睿见混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>9.95</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>012522</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>英大稳固增强核心一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>23.17</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>012521</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>英大稳固增强核心一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>23.17</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>014340</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>长江智能制造混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>83.09</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009912</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>九泰天富改革新动力混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001608</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>英大策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1582,7 +3269,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2512,7 +4199,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2986,7 +4673,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4220,7 +5907,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4618,7 +6305,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5206,7 +6893,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5640,516 +7327,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H13"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>001256</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>泓德优选成长混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>37.42</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.41</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.82</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.4294</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>006608</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>泓德研究优选混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>18.49</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.02</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.37</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.6231</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>002808</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>泓德优势领航灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>11.50</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>92.02</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.59</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.4128</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>001607</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>英大策略优选混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.80</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.61</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0420</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>003447</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>英大睿鑫灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.73</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>89.87</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.92</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0359</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>003446</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>英大睿鑫灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>89.87</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.92</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0349</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>001678</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>英大国企改革主题股票</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.67</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>91.00</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.72</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0316</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>003501</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>泰达宏利睿智稳健灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.55</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>89.11</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.26</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0179</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>000972</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>新华万银多元策略灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.19</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>94.88</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>5.21</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0099</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>004192</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>招商中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.90</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>93.94</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>0.88</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0079</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>004193</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>招商中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.42</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>93.94</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>0.88</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0037</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>001608</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>英大策略优选混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>93.80</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>4.61</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0023</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>